--- a/Git命令个人总结.xlsx
+++ b/Git命令个人总结.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Git概述" sheetId="2" r:id="rId1"/>
+    <sheet name="Git常用命令速查表" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="124">
   <si>
     <t>git status</t>
   </si>
@@ -448,6 +449,15 @@
   </si>
   <si>
     <t>Git常用命令速查表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git(读音为/gɪt/)是一个开源的分布式版本控制系统，可以有效、高速地处理从很小到非常大的项目版本管理。 
+[1]  Git 是 Linus Torvalds 为了帮助管理 Linux 内核开发而开发的一个开放源码的版本控制软件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -614,21 +624,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,6 +664,247 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6096000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="342900"/>
+          <a:ext cx="6096000" cy="4076700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>110870</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7248525" y="342900"/>
+          <a:ext cx="10058400" cy="2854070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5210175</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="a:3:{s:3:\&quot;pic\&quot;;s:43:\&quot;portal/201808/04/001249htotjm4kb8bacj4s.jpg\&quot;;s:5:\&quot;thumb\&quot;;s:0:\&quot;\&quot;;s:6:\&quot;remote\&quot;;N;}"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4800600"/>
+          <a:ext cx="5210175" cy="2343150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="图片描述"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7248525" y="3429000"/>
+          <a:ext cx="2247900" cy="2266950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666245</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47264</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10048875" y="3505200"/>
+          <a:ext cx="4038095" cy="2885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -940,10 +1194,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="95.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -958,24 +1243,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="9"/>
+      <c r="E4" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
@@ -1020,10 +1305,10 @@
       </c>
     </row>
     <row r="8" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="9"/>
       <c r="E8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1060,10 +1345,10 @@
       </c>
     </row>
     <row r="11" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="9"/>
       <c r="E11" s="4" t="s">
         <v>69</v>
       </c>
@@ -1078,10 +1363,10 @@
       <c r="C12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B13" s="4" t="s">
@@ -1098,10 +1383,10 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="9"/>
       <c r="E14" s="4" t="s">
         <v>85</v>
       </c>
@@ -1180,14 +1465,14 @@
       </c>
     </row>
     <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="E20" s="5" t="s">
+      <c r="C20" s="9"/>
+      <c r="E20" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
@@ -1197,10 +1482,10 @@
         <v>26</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="F21" s="11"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
@@ -1210,10 +1495,10 @@
         <v>28</v>
       </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="6" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1225,23 +1510,23 @@
         <v>30</v>
       </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="5"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="6" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1253,10 +1538,10 @@
         <v>16</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="6" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1268,10 +1553,10 @@
         <v>18</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="6" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1283,10 +1568,10 @@
         <v>20</v>
       </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="8" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1298,10 +1583,10 @@
         <v>22</v>
       </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="F28" s="5"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="4" t="s">
@@ -1311,21 +1596,21 @@
         <v>24</v>
       </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="11"/>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="5"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1337,10 +1622,10 @@
         <v>32</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1352,10 +1637,10 @@
         <v>34</v>
       </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="6" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1367,23 +1652,23 @@
         <v>36</v>
       </c>
       <c r="D33" s="3"/>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1395,10 +1680,10 @@
         <v>76</v>
       </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="6" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1410,8 +1695,8 @@
         <v>75</v>
       </c>
       <c r="D36" s="3"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="8" t="s">
+      <c r="E36" s="5"/>
+      <c r="F36" s="6" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1423,8 +1708,8 @@
         <v>78</v>
       </c>
       <c r="D37" s="3"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="8" t="s">
+      <c r="E37" s="5"/>
+      <c r="F37" s="6" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1436,10 +1721,10 @@
         <v>80</v>
       </c>
       <c r="D38" s="3"/>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="6" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1451,19 +1736,19 @@
         <v>82</v>
       </c>
       <c r="D39" s="3"/>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="40" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D40" s="3"/>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="8" t="s">
         <v>116</v>
       </c>
     </row>
